--- a/out/production/edd-atividades/com/matheus/provas/prova2/prova 2.xlsx
+++ b/out/production/edd-atividades/com/matheus/provas/prova2/prova 2.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\mathe\Documents\UTFPR\4 - Periodo\Estrutura-de-Dados\edd-atividades\src\com\matheus\provas\prova2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{580B7096-9E63-43F1-97DC-AA0C80E1BC6B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A7AE235-FD47-4BA3-9164-9982B205805D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{A6CA15F8-E5D9-47FD-BD98-6AA92256603E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="3" xr2:uid="{A6CA15F8-E5D9-47FD-BD98-6AA92256603E}"/>
   </bookViews>
   <sheets>
     <sheet name="Bubble Sort" sheetId="1" r:id="rId1"/>
     <sheet name="Selection Sort" sheetId="2" r:id="rId2"/>
     <sheet name="Insert Sort" sheetId="3" r:id="rId3"/>
+    <sheet name="Binary Search" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="42">
   <si>
     <t>fase</t>
   </si>
@@ -146,12 +147,33 @@
   <si>
     <t>E</t>
   </si>
+  <si>
+    <t>Passo</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>f</t>
+  </si>
+  <si>
+    <t>m</t>
+  </si>
+  <si>
+    <t>Item a ser buscado: 5</t>
+  </si>
+  <si>
+    <t>Item a ser buscado: 18</t>
+  </si>
+  <si>
+    <t>8 (não pode, retorna false)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -208,6 +230,13 @@
     <font>
       <i/>
       <sz val="20"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="22"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -270,7 +299,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="25">
+  <borders count="26">
     <border>
       <left/>
       <right/>
@@ -574,11 +603,22 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="double">
+        <color indexed="64"/>
+      </right>
+      <top style="double">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="96">
+  <cellXfs count="108">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -653,21 +693,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -723,6 +748,43 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1088,10 +1150,10 @@
       </c>
     </row>
     <row r="7" spans="6:18" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F7" s="54" t="s">
+      <c r="F7" s="91" t="s">
         <v>13</v>
       </c>
-      <c r="G7" s="51">
+      <c r="G7" s="94">
         <v>1</v>
       </c>
       <c r="H7" s="10">
@@ -1129,8 +1191,8 @@
       </c>
     </row>
     <row r="8" spans="6:18" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="F8" s="55"/>
-      <c r="G8" s="53"/>
+      <c r="F8" s="92"/>
+      <c r="G8" s="95"/>
       <c r="H8" s="11">
         <v>2</v>
       </c>
@@ -1166,8 +1228,8 @@
       </c>
     </row>
     <row r="9" spans="6:18" x14ac:dyDescent="0.25">
-      <c r="F9" s="55"/>
-      <c r="G9" s="53"/>
+      <c r="F9" s="92"/>
+      <c r="G9" s="95"/>
       <c r="H9" s="11">
         <v>3</v>
       </c>
@@ -1203,8 +1265,8 @@
       </c>
     </row>
     <row r="10" spans="6:18" x14ac:dyDescent="0.25">
-      <c r="F10" s="55"/>
-      <c r="G10" s="53"/>
+      <c r="F10" s="92"/>
+      <c r="G10" s="95"/>
       <c r="H10" s="11">
         <v>4</v>
       </c>
@@ -1240,8 +1302,8 @@
       </c>
     </row>
     <row r="11" spans="6:18" x14ac:dyDescent="0.25">
-      <c r="F11" s="55"/>
-      <c r="G11" s="53"/>
+      <c r="F11" s="92"/>
+      <c r="G11" s="95"/>
       <c r="H11" s="11">
         <v>5</v>
       </c>
@@ -1277,8 +1339,8 @@
       </c>
     </row>
     <row r="12" spans="6:18" x14ac:dyDescent="0.25">
-      <c r="F12" s="55"/>
-      <c r="G12" s="53"/>
+      <c r="F12" s="92"/>
+      <c r="G12" s="95"/>
       <c r="H12" s="11">
         <v>6</v>
       </c>
@@ -1314,8 +1376,8 @@
       </c>
     </row>
     <row r="13" spans="6:18" x14ac:dyDescent="0.25">
-      <c r="F13" s="55"/>
-      <c r="G13" s="53"/>
+      <c r="F13" s="92"/>
+      <c r="G13" s="95"/>
       <c r="H13" s="11">
         <v>7</v>
       </c>
@@ -1351,8 +1413,8 @@
       </c>
     </row>
     <row r="14" spans="6:18" x14ac:dyDescent="0.25">
-      <c r="F14" s="55"/>
-      <c r="G14" s="53"/>
+      <c r="F14" s="92"/>
+      <c r="G14" s="95"/>
       <c r="H14" s="11">
         <v>8</v>
       </c>
@@ -1388,8 +1450,8 @@
       </c>
     </row>
     <row r="15" spans="6:18" x14ac:dyDescent="0.25">
-      <c r="F15" s="55"/>
-      <c r="G15" s="53"/>
+      <c r="F15" s="92"/>
+      <c r="G15" s="95"/>
       <c r="H15" s="11">
         <v>9</v>
       </c>
@@ -1425,8 +1487,8 @@
       </c>
     </row>
     <row r="16" spans="6:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F16" s="56"/>
-      <c r="G16" s="52"/>
+      <c r="F16" s="93"/>
+      <c r="G16" s="96"/>
       <c r="H16" s="12"/>
       <c r="I16" s="9">
         <v>15</v>
@@ -1503,10 +1565,10 @@
       </c>
     </row>
     <row r="20" spans="6:18" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F20" s="51" t="s">
+      <c r="F20" s="94" t="s">
         <v>14</v>
       </c>
-      <c r="G20" s="51">
+      <c r="G20" s="94">
         <v>2</v>
       </c>
       <c r="H20" s="10">
@@ -1544,8 +1606,8 @@
       </c>
     </row>
     <row r="21" spans="6:18" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="F21" s="53"/>
-      <c r="G21" s="53"/>
+      <c r="F21" s="95"/>
+      <c r="G21" s="95"/>
       <c r="H21" s="11">
         <v>2</v>
       </c>
@@ -1581,8 +1643,8 @@
       </c>
     </row>
     <row r="22" spans="6:18" x14ac:dyDescent="0.25">
-      <c r="F22" s="53"/>
-      <c r="G22" s="53"/>
+      <c r="F22" s="95"/>
+      <c r="G22" s="95"/>
       <c r="H22" s="11">
         <v>3</v>
       </c>
@@ -1618,8 +1680,8 @@
       </c>
     </row>
     <row r="23" spans="6:18" x14ac:dyDescent="0.25">
-      <c r="F23" s="53"/>
-      <c r="G23" s="53"/>
+      <c r="F23" s="95"/>
+      <c r="G23" s="95"/>
       <c r="H23" s="11">
         <v>4</v>
       </c>
@@ -1655,8 +1717,8 @@
       </c>
     </row>
     <row r="24" spans="6:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F24" s="53"/>
-      <c r="G24" s="53"/>
+      <c r="F24" s="95"/>
+      <c r="G24" s="95"/>
       <c r="H24" s="11">
         <v>5</v>
       </c>
@@ -1692,8 +1754,8 @@
       </c>
     </row>
     <row r="25" spans="6:18" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F25" s="53"/>
-      <c r="G25" s="53"/>
+      <c r="F25" s="95"/>
+      <c r="G25" s="95"/>
       <c r="H25" s="11">
         <v>6</v>
       </c>
@@ -1729,8 +1791,8 @@
       </c>
     </row>
     <row r="26" spans="6:18" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F26" s="53"/>
-      <c r="G26" s="53"/>
+      <c r="F26" s="95"/>
+      <c r="G26" s="95"/>
       <c r="H26" s="11">
         <v>7</v>
       </c>
@@ -1766,8 +1828,8 @@
       </c>
     </row>
     <row r="27" spans="6:18" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F27" s="53"/>
-      <c r="G27" s="53"/>
+      <c r="F27" s="95"/>
+      <c r="G27" s="95"/>
       <c r="H27" s="23">
         <v>8</v>
       </c>
@@ -1803,8 +1865,8 @@
       </c>
     </row>
     <row r="28" spans="6:18" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F28" s="52"/>
-      <c r="G28" s="52"/>
+      <c r="F28" s="96"/>
+      <c r="G28" s="96"/>
       <c r="H28" s="21"/>
       <c r="I28" s="8">
         <v>18</v>
@@ -1880,10 +1942,10 @@
       </c>
     </row>
     <row r="31" spans="6:18" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F31" s="51" t="s">
-        <v>15</v>
-      </c>
-      <c r="G31" s="51">
+      <c r="F31" s="94" t="s">
+        <v>15</v>
+      </c>
+      <c r="G31" s="94">
         <v>3</v>
       </c>
       <c r="H31" s="10">
@@ -1921,8 +1983,8 @@
       </c>
     </row>
     <row r="32" spans="6:18" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="F32" s="53"/>
-      <c r="G32" s="53"/>
+      <c r="F32" s="95"/>
+      <c r="G32" s="95"/>
       <c r="H32" s="11">
         <v>2</v>
       </c>
@@ -1958,8 +2020,8 @@
       </c>
     </row>
     <row r="33" spans="6:18" x14ac:dyDescent="0.25">
-      <c r="F33" s="53"/>
-      <c r="G33" s="53"/>
+      <c r="F33" s="95"/>
+      <c r="G33" s="95"/>
       <c r="H33" s="11">
         <v>3</v>
       </c>
@@ -1995,8 +2057,8 @@
       </c>
     </row>
     <row r="34" spans="6:18" x14ac:dyDescent="0.25">
-      <c r="F34" s="53"/>
-      <c r="G34" s="53"/>
+      <c r="F34" s="95"/>
+      <c r="G34" s="95"/>
       <c r="H34" s="11">
         <v>4</v>
       </c>
@@ -2032,8 +2094,8 @@
       </c>
     </row>
     <row r="35" spans="6:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F35" s="53"/>
-      <c r="G35" s="53"/>
+      <c r="F35" s="95"/>
+      <c r="G35" s="95"/>
       <c r="H35" s="11">
         <v>5</v>
       </c>
@@ -2069,8 +2131,8 @@
       </c>
     </row>
     <row r="36" spans="6:18" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F36" s="53"/>
-      <c r="G36" s="53"/>
+      <c r="F36" s="95"/>
+      <c r="G36" s="95"/>
       <c r="H36" s="11">
         <v>6</v>
       </c>
@@ -2106,8 +2168,8 @@
       </c>
     </row>
     <row r="37" spans="6:18" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F37" s="53"/>
-      <c r="G37" s="53"/>
+      <c r="F37" s="95"/>
+      <c r="G37" s="95"/>
       <c r="H37" s="23">
         <v>7</v>
       </c>
@@ -2143,8 +2205,8 @@
       </c>
     </row>
     <row r="38" spans="6:18" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F38" s="52"/>
-      <c r="G38" s="52"/>
+      <c r="F38" s="96"/>
+      <c r="G38" s="96"/>
       <c r="H38" s="22"/>
       <c r="I38" s="8">
         <v>18</v>
@@ -2220,10 +2282,10 @@
       </c>
     </row>
     <row r="41" spans="6:18" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F41" s="51" t="s">
-        <v>16</v>
-      </c>
-      <c r="G41" s="51">
+      <c r="F41" s="94" t="s">
+        <v>16</v>
+      </c>
+      <c r="G41" s="94">
         <v>4</v>
       </c>
       <c r="H41" s="10">
@@ -2261,8 +2323,8 @@
       </c>
     </row>
     <row r="42" spans="6:18" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="F42" s="53"/>
-      <c r="G42" s="53"/>
+      <c r="F42" s="95"/>
+      <c r="G42" s="95"/>
       <c r="H42" s="11">
         <v>2</v>
       </c>
@@ -2298,8 +2360,8 @@
       </c>
     </row>
     <row r="43" spans="6:18" x14ac:dyDescent="0.25">
-      <c r="F43" s="53"/>
-      <c r="G43" s="53"/>
+      <c r="F43" s="95"/>
+      <c r="G43" s="95"/>
       <c r="H43" s="11">
         <v>3</v>
       </c>
@@ -2335,8 +2397,8 @@
       </c>
     </row>
     <row r="44" spans="6:18" x14ac:dyDescent="0.25">
-      <c r="F44" s="53"/>
-      <c r="G44" s="53"/>
+      <c r="F44" s="95"/>
+      <c r="G44" s="95"/>
       <c r="H44" s="11">
         <v>4</v>
       </c>
@@ -2372,8 +2434,8 @@
       </c>
     </row>
     <row r="45" spans="6:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F45" s="53"/>
-      <c r="G45" s="53"/>
+      <c r="F45" s="95"/>
+      <c r="G45" s="95"/>
       <c r="H45" s="11">
         <v>5</v>
       </c>
@@ -2409,8 +2471,8 @@
       </c>
     </row>
     <row r="46" spans="6:18" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F46" s="53"/>
-      <c r="G46" s="53"/>
+      <c r="F46" s="95"/>
+      <c r="G46" s="95"/>
       <c r="H46" s="23">
         <v>6</v>
       </c>
@@ -2446,8 +2508,8 @@
       </c>
     </row>
     <row r="47" spans="6:18" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F47" s="52"/>
-      <c r="G47" s="52"/>
+      <c r="F47" s="96"/>
+      <c r="G47" s="96"/>
       <c r="H47" s="22"/>
       <c r="I47" s="8">
         <v>19</v>
@@ -2523,10 +2585,10 @@
       </c>
     </row>
     <row r="50" spans="6:18" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F50" s="51" t="s">
-        <v>17</v>
-      </c>
-      <c r="G50" s="51">
+      <c r="F50" s="94" t="s">
+        <v>17</v>
+      </c>
+      <c r="G50" s="94">
         <v>5</v>
       </c>
       <c r="H50" s="10">
@@ -2564,8 +2626,8 @@
       </c>
     </row>
     <row r="51" spans="6:18" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="F51" s="53"/>
-      <c r="G51" s="53"/>
+      <c r="F51" s="95"/>
+      <c r="G51" s="95"/>
       <c r="H51" s="11">
         <v>2</v>
       </c>
@@ -2601,8 +2663,8 @@
       </c>
     </row>
     <row r="52" spans="6:18" x14ac:dyDescent="0.25">
-      <c r="F52" s="53"/>
-      <c r="G52" s="53"/>
+      <c r="F52" s="95"/>
+      <c r="G52" s="95"/>
       <c r="H52" s="11">
         <v>3</v>
       </c>
@@ -2638,8 +2700,8 @@
       </c>
     </row>
     <row r="53" spans="6:18" x14ac:dyDescent="0.25">
-      <c r="F53" s="53"/>
-      <c r="G53" s="53"/>
+      <c r="F53" s="95"/>
+      <c r="G53" s="95"/>
       <c r="H53" s="11">
         <v>4</v>
       </c>
@@ -2675,8 +2737,8 @@
       </c>
     </row>
     <row r="54" spans="6:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F54" s="53"/>
-      <c r="G54" s="53"/>
+      <c r="F54" s="95"/>
+      <c r="G54" s="95"/>
       <c r="H54" s="23">
         <v>5</v>
       </c>
@@ -2712,8 +2774,8 @@
       </c>
     </row>
     <row r="55" spans="6:18" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F55" s="52"/>
-      <c r="G55" s="52"/>
+      <c r="F55" s="96"/>
+      <c r="G55" s="96"/>
       <c r="H55" s="22"/>
       <c r="I55" s="8">
         <v>19</v>
@@ -2789,10 +2851,10 @@
       </c>
     </row>
     <row r="58" spans="6:18" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F58" s="51" t="s">
-        <v>18</v>
-      </c>
-      <c r="G58" s="51">
+      <c r="F58" s="94" t="s">
+        <v>18</v>
+      </c>
+      <c r="G58" s="94">
         <v>6</v>
       </c>
       <c r="H58" s="10">
@@ -2830,8 +2892,8 @@
       </c>
     </row>
     <row r="59" spans="6:18" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="F59" s="53"/>
-      <c r="G59" s="53"/>
+      <c r="F59" s="95"/>
+      <c r="G59" s="95"/>
       <c r="H59" s="11">
         <v>2</v>
       </c>
@@ -2867,8 +2929,8 @@
       </c>
     </row>
     <row r="60" spans="6:18" x14ac:dyDescent="0.25">
-      <c r="F60" s="53"/>
-      <c r="G60" s="53"/>
+      <c r="F60" s="95"/>
+      <c r="G60" s="95"/>
       <c r="H60" s="11">
         <v>3</v>
       </c>
@@ -2904,8 +2966,8 @@
       </c>
     </row>
     <row r="61" spans="6:18" x14ac:dyDescent="0.25">
-      <c r="F61" s="53"/>
-      <c r="G61" s="53"/>
+      <c r="F61" s="95"/>
+      <c r="G61" s="95"/>
       <c r="H61" s="11">
         <v>4</v>
       </c>
@@ -2941,8 +3003,8 @@
       </c>
     </row>
     <row r="62" spans="6:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F62" s="52"/>
-      <c r="G62" s="52"/>
+      <c r="F62" s="96"/>
+      <c r="G62" s="96"/>
       <c r="H62" s="12"/>
       <c r="I62" s="9">
         <v>19</v>
@@ -3018,10 +3080,10 @@
       </c>
     </row>
     <row r="65" spans="6:18" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F65" s="51" t="s">
-        <v>19</v>
-      </c>
-      <c r="G65" s="51">
+      <c r="F65" s="94" t="s">
+        <v>19</v>
+      </c>
+      <c r="G65" s="94">
         <v>7</v>
       </c>
       <c r="H65" s="10">
@@ -3059,8 +3121,8 @@
       </c>
     </row>
     <row r="66" spans="6:18" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="F66" s="53"/>
-      <c r="G66" s="53"/>
+      <c r="F66" s="95"/>
+      <c r="G66" s="95"/>
       <c r="H66" s="11">
         <v>2</v>
       </c>
@@ -3096,8 +3158,8 @@
       </c>
     </row>
     <row r="67" spans="6:18" x14ac:dyDescent="0.25">
-      <c r="F67" s="53"/>
-      <c r="G67" s="53"/>
+      <c r="F67" s="95"/>
+      <c r="G67" s="95"/>
       <c r="H67" s="11">
         <v>3</v>
       </c>
@@ -3133,8 +3195,8 @@
       </c>
     </row>
     <row r="68" spans="6:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F68" s="52"/>
-      <c r="G68" s="52"/>
+      <c r="F68" s="96"/>
+      <c r="G68" s="96"/>
       <c r="H68" s="12"/>
       <c r="I68" s="9">
         <v>19</v>
@@ -3210,10 +3272,10 @@
       </c>
     </row>
     <row r="71" spans="6:18" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F71" s="51" t="s">
+      <c r="F71" s="94" t="s">
         <v>20</v>
       </c>
-      <c r="G71" s="51">
+      <c r="G71" s="94">
         <v>8</v>
       </c>
       <c r="H71" s="10">
@@ -3251,8 +3313,8 @@
       </c>
     </row>
     <row r="72" spans="6:18" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F72" s="53"/>
-      <c r="G72" s="53"/>
+      <c r="F72" s="95"/>
+      <c r="G72" s="95"/>
       <c r="H72" s="23">
         <v>2</v>
       </c>
@@ -3288,8 +3350,8 @@
       </c>
     </row>
     <row r="73" spans="6:18" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F73" s="52"/>
-      <c r="G73" s="52"/>
+      <c r="F73" s="96"/>
+      <c r="G73" s="96"/>
       <c r="H73" s="22"/>
       <c r="I73" s="8">
         <v>19</v>
@@ -3365,10 +3427,10 @@
       </c>
     </row>
     <row r="76" spans="6:18" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F76" s="51" t="s">
+      <c r="F76" s="94" t="s">
         <v>21</v>
       </c>
-      <c r="G76" s="51">
+      <c r="G76" s="94">
         <v>9</v>
       </c>
       <c r="H76" s="27">
@@ -3406,8 +3468,8 @@
       </c>
     </row>
     <row r="77" spans="6:18" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F77" s="52"/>
-      <c r="G77" s="52"/>
+      <c r="F77" s="96"/>
+      <c r="G77" s="96"/>
       <c r="H77" s="22"/>
       <c r="I77" s="8">
         <v>19</v>
@@ -3463,24 +3525,24 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="F76:F77"/>
+    <mergeCell ref="G76:G77"/>
+    <mergeCell ref="F65:F68"/>
+    <mergeCell ref="G65:G68"/>
+    <mergeCell ref="F71:F73"/>
+    <mergeCell ref="G71:G73"/>
+    <mergeCell ref="F58:F62"/>
+    <mergeCell ref="G58:G62"/>
+    <mergeCell ref="F31:F38"/>
+    <mergeCell ref="G31:G38"/>
+    <mergeCell ref="F41:F47"/>
+    <mergeCell ref="G41:G47"/>
     <mergeCell ref="F7:F16"/>
     <mergeCell ref="G7:G16"/>
     <mergeCell ref="F20:F28"/>
     <mergeCell ref="G20:G28"/>
     <mergeCell ref="F50:F55"/>
     <mergeCell ref="G50:G55"/>
-    <mergeCell ref="F58:F62"/>
-    <mergeCell ref="G58:G62"/>
-    <mergeCell ref="F31:F38"/>
-    <mergeCell ref="G31:G38"/>
-    <mergeCell ref="F41:F47"/>
-    <mergeCell ref="G41:G47"/>
-    <mergeCell ref="F76:F77"/>
-    <mergeCell ref="G76:G77"/>
-    <mergeCell ref="F65:F68"/>
-    <mergeCell ref="G65:G68"/>
-    <mergeCell ref="F71:F73"/>
-    <mergeCell ref="G71:G73"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
@@ -3491,7 +3553,7 @@
   <dimension ref="F3:R33"/>
   <sheetViews>
     <sheetView topLeftCell="B17" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20:R30"/>
+      <selection activeCell="H37" sqref="H37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3544,19 +3606,19 @@
       </c>
     </row>
     <row r="6" spans="6:18" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F6" s="63" t="s">
+      <c r="F6" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="G6" s="60">
+      <c r="G6" s="55">
         <v>1</v>
       </c>
       <c r="H6" s="10">
         <v>6</v>
       </c>
-      <c r="I6" s="66">
-        <v>15</v>
-      </c>
-      <c r="J6" s="59">
+      <c r="I6" s="61">
+        <v>15</v>
+      </c>
+      <c r="J6" s="54">
         <v>5</v>
       </c>
       <c r="K6" s="4">
@@ -3568,7 +3630,7 @@
       <c r="M6" s="4">
         <v>19</v>
       </c>
-      <c r="N6" s="67">
+      <c r="N6" s="62">
         <v>4</v>
       </c>
       <c r="O6" s="4">
@@ -3585,22 +3647,22 @@
       </c>
     </row>
     <row r="7" spans="6:18" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="F7" s="64" t="s">
+      <c r="F7" s="59" t="s">
         <v>14</v>
       </c>
-      <c r="G7" s="61">
+      <c r="G7" s="56">
         <v>2</v>
       </c>
       <c r="H7" s="11">
         <v>2</v>
       </c>
-      <c r="I7" s="68">
-        <v>4</v>
-      </c>
-      <c r="J7" s="69">
-        <v>5</v>
-      </c>
-      <c r="K7" s="57">
+      <c r="I7" s="63">
+        <v>4</v>
+      </c>
+      <c r="J7" s="64">
+        <v>5</v>
+      </c>
+      <c r="K7" s="52">
         <v>18</v>
       </c>
       <c r="L7" s="5">
@@ -3626,25 +3688,25 @@
       </c>
     </row>
     <row r="8" spans="6:18" x14ac:dyDescent="0.25">
-      <c r="F8" s="64" t="s">
-        <v>15</v>
-      </c>
-      <c r="G8" s="61">
+      <c r="F8" s="59" t="s">
+        <v>15</v>
+      </c>
+      <c r="G8" s="56">
         <v>3</v>
       </c>
       <c r="H8" s="11">
         <v>4</v>
       </c>
-      <c r="I8" s="68">
-        <v>4</v>
-      </c>
-      <c r="J8" s="68">
-        <v>5</v>
-      </c>
-      <c r="K8" s="69">
-        <v>18</v>
-      </c>
-      <c r="L8" s="69">
+      <c r="I8" s="63">
+        <v>4</v>
+      </c>
+      <c r="J8" s="63">
+        <v>5</v>
+      </c>
+      <c r="K8" s="64">
+        <v>18</v>
+      </c>
+      <c r="L8" s="64">
         <v>12</v>
       </c>
       <c r="M8" s="5">
@@ -3667,31 +3729,31 @@
       </c>
     </row>
     <row r="9" spans="6:18" x14ac:dyDescent="0.25">
-      <c r="F9" s="64" t="s">
-        <v>16</v>
-      </c>
-      <c r="G9" s="61">
+      <c r="F9" s="59" t="s">
+        <v>16</v>
+      </c>
+      <c r="G9" s="56">
         <v>4</v>
       </c>
       <c r="H9" s="11">
         <v>6</v>
       </c>
-      <c r="I9" s="68">
-        <v>4</v>
-      </c>
-      <c r="J9" s="68">
-        <v>5</v>
-      </c>
-      <c r="K9" s="68">
-        <v>12</v>
-      </c>
-      <c r="L9" s="69">
-        <v>18</v>
-      </c>
-      <c r="M9" s="57">
-        <v>19</v>
-      </c>
-      <c r="N9" s="70">
+      <c r="I9" s="63">
+        <v>4</v>
+      </c>
+      <c r="J9" s="63">
+        <v>5</v>
+      </c>
+      <c r="K9" s="63">
+        <v>12</v>
+      </c>
+      <c r="L9" s="64">
+        <v>18</v>
+      </c>
+      <c r="M9" s="52">
+        <v>19</v>
+      </c>
+      <c r="N9" s="65">
         <v>15</v>
       </c>
       <c r="O9" s="5">
@@ -3708,31 +3770,31 @@
       </c>
     </row>
     <row r="10" spans="6:18" x14ac:dyDescent="0.25">
-      <c r="F10" s="64" t="s">
-        <v>17</v>
-      </c>
-      <c r="G10" s="61">
+      <c r="F10" s="59" t="s">
+        <v>17</v>
+      </c>
+      <c r="G10" s="56">
         <v>5</v>
       </c>
       <c r="H10" s="11">
         <v>7</v>
       </c>
-      <c r="I10" s="68">
-        <v>4</v>
-      </c>
-      <c r="J10" s="68">
-        <v>5</v>
-      </c>
-      <c r="K10" s="68">
-        <v>12</v>
-      </c>
-      <c r="L10" s="68">
-        <v>15</v>
-      </c>
-      <c r="M10" s="71">
-        <v>19</v>
-      </c>
-      <c r="N10" s="57">
+      <c r="I10" s="63">
+        <v>4</v>
+      </c>
+      <c r="J10" s="63">
+        <v>5</v>
+      </c>
+      <c r="K10" s="63">
+        <v>12</v>
+      </c>
+      <c r="L10" s="63">
+        <v>15</v>
+      </c>
+      <c r="M10" s="66">
+        <v>19</v>
+      </c>
+      <c r="N10" s="52">
         <v>18</v>
       </c>
       <c r="O10" s="33">
@@ -3749,40 +3811,40 @@
       </c>
     </row>
     <row r="11" spans="6:18" x14ac:dyDescent="0.25">
-      <c r="F11" s="64" t="s">
-        <v>18</v>
-      </c>
-      <c r="G11" s="61">
+      <c r="F11" s="59" t="s">
+        <v>18</v>
+      </c>
+      <c r="G11" s="56">
         <v>6</v>
       </c>
       <c r="H11" s="11">
         <v>9</v>
       </c>
-      <c r="I11" s="68">
-        <v>4</v>
-      </c>
-      <c r="J11" s="68">
-        <v>5</v>
-      </c>
-      <c r="K11" s="68">
-        <v>12</v>
-      </c>
-      <c r="L11" s="68">
-        <v>15</v>
-      </c>
-      <c r="M11" s="68">
-        <v>15</v>
-      </c>
-      <c r="N11" s="69">
-        <v>18</v>
-      </c>
-      <c r="O11" s="57">
+      <c r="I11" s="63">
+        <v>4</v>
+      </c>
+      <c r="J11" s="63">
+        <v>5</v>
+      </c>
+      <c r="K11" s="63">
+        <v>12</v>
+      </c>
+      <c r="L11" s="63">
+        <v>15</v>
+      </c>
+      <c r="M11" s="63">
+        <v>15</v>
+      </c>
+      <c r="N11" s="64">
+        <v>18</v>
+      </c>
+      <c r="O11" s="52">
         <v>19</v>
       </c>
       <c r="P11" s="5">
         <v>19</v>
       </c>
-      <c r="Q11" s="70">
+      <c r="Q11" s="65">
         <v>16</v>
       </c>
       <c r="R11" s="5">
@@ -3790,81 +3852,81 @@
       </c>
     </row>
     <row r="12" spans="6:18" x14ac:dyDescent="0.25">
-      <c r="F12" s="64" t="s">
-        <v>19</v>
-      </c>
-      <c r="G12" s="61">
+      <c r="F12" s="59" t="s">
+        <v>19</v>
+      </c>
+      <c r="G12" s="56">
         <v>7</v>
       </c>
       <c r="H12" s="11">
         <v>10</v>
       </c>
-      <c r="I12" s="68">
-        <v>4</v>
-      </c>
-      <c r="J12" s="68">
-        <v>5</v>
-      </c>
-      <c r="K12" s="68">
-        <v>12</v>
-      </c>
-      <c r="L12" s="68">
-        <v>15</v>
-      </c>
-      <c r="M12" s="68">
-        <v>15</v>
-      </c>
-      <c r="N12" s="68">
-        <v>16</v>
-      </c>
-      <c r="O12" s="69">
-        <v>19</v>
-      </c>
-      <c r="P12" s="57">
+      <c r="I12" s="63">
+        <v>4</v>
+      </c>
+      <c r="J12" s="63">
+        <v>5</v>
+      </c>
+      <c r="K12" s="63">
+        <v>12</v>
+      </c>
+      <c r="L12" s="63">
+        <v>15</v>
+      </c>
+      <c r="M12" s="63">
+        <v>15</v>
+      </c>
+      <c r="N12" s="63">
+        <v>16</v>
+      </c>
+      <c r="O12" s="64">
+        <v>19</v>
+      </c>
+      <c r="P12" s="52">
         <v>19</v>
       </c>
       <c r="Q12" s="5">
         <v>18</v>
       </c>
-      <c r="R12" s="70">
+      <c r="R12" s="65">
         <v>17</v>
       </c>
     </row>
     <row r="13" spans="6:18" x14ac:dyDescent="0.25">
-      <c r="F13" s="64" t="s">
+      <c r="F13" s="59" t="s">
         <v>20</v>
       </c>
-      <c r="G13" s="61">
+      <c r="G13" s="56">
         <v>8</v>
       </c>
       <c r="H13" s="11">
         <v>9</v>
       </c>
-      <c r="I13" s="68">
-        <v>4</v>
-      </c>
-      <c r="J13" s="68">
-        <v>5</v>
-      </c>
-      <c r="K13" s="68">
-        <v>12</v>
-      </c>
-      <c r="L13" s="68">
-        <v>15</v>
-      </c>
-      <c r="M13" s="68">
-        <v>15</v>
-      </c>
-      <c r="N13" s="68">
-        <v>16</v>
-      </c>
-      <c r="O13" s="68">
-        <v>17</v>
-      </c>
-      <c r="P13" s="69">
-        <v>19</v>
-      </c>
-      <c r="Q13" s="69">
+      <c r="I13" s="63">
+        <v>4</v>
+      </c>
+      <c r="J13" s="63">
+        <v>5</v>
+      </c>
+      <c r="K13" s="63">
+        <v>12</v>
+      </c>
+      <c r="L13" s="63">
+        <v>15</v>
+      </c>
+      <c r="M13" s="63">
+        <v>15</v>
+      </c>
+      <c r="N13" s="63">
+        <v>16</v>
+      </c>
+      <c r="O13" s="63">
+        <v>17</v>
+      </c>
+      <c r="P13" s="64">
+        <v>19</v>
+      </c>
+      <c r="Q13" s="64">
         <v>18</v>
       </c>
       <c r="R13" s="5">
@@ -3872,84 +3934,84 @@
       </c>
     </row>
     <row r="14" spans="6:18" x14ac:dyDescent="0.25">
-      <c r="F14" s="64" t="s">
+      <c r="F14" s="59" t="s">
         <v>21</v>
       </c>
-      <c r="G14" s="61">
+      <c r="G14" s="56">
         <v>9</v>
       </c>
       <c r="H14" s="11">
         <v>9</v>
       </c>
-      <c r="I14" s="68">
-        <v>4</v>
-      </c>
-      <c r="J14" s="68">
-        <v>5</v>
-      </c>
-      <c r="K14" s="68">
-        <v>12</v>
-      </c>
-      <c r="L14" s="68">
-        <v>15</v>
-      </c>
-      <c r="M14" s="68">
-        <v>15</v>
-      </c>
-      <c r="N14" s="68">
-        <v>16</v>
-      </c>
-      <c r="O14" s="68">
-        <v>17</v>
-      </c>
-      <c r="P14" s="68">
-        <v>18</v>
-      </c>
-      <c r="Q14" s="69">
-        <v>19</v>
-      </c>
-      <c r="R14" s="57">
+      <c r="I14" s="63">
+        <v>4</v>
+      </c>
+      <c r="J14" s="63">
+        <v>5</v>
+      </c>
+      <c r="K14" s="63">
+        <v>12</v>
+      </c>
+      <c r="L14" s="63">
+        <v>15</v>
+      </c>
+      <c r="M14" s="63">
+        <v>15</v>
+      </c>
+      <c r="N14" s="63">
+        <v>16</v>
+      </c>
+      <c r="O14" s="63">
+        <v>17</v>
+      </c>
+      <c r="P14" s="63">
+        <v>18</v>
+      </c>
+      <c r="Q14" s="64">
+        <v>19</v>
+      </c>
+      <c r="R14" s="52">
         <v>19</v>
       </c>
     </row>
     <row r="15" spans="6:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F15" s="65"/>
-      <c r="G15" s="62"/>
+      <c r="F15" s="60"/>
+      <c r="G15" s="57"/>
       <c r="H15" s="12"/>
-      <c r="I15" s="72">
-        <v>4</v>
-      </c>
-      <c r="J15" s="72">
-        <v>5</v>
-      </c>
-      <c r="K15" s="72">
-        <v>12</v>
-      </c>
-      <c r="L15" s="72">
-        <v>15</v>
-      </c>
-      <c r="M15" s="72">
-        <v>15</v>
-      </c>
-      <c r="N15" s="72">
-        <v>16</v>
-      </c>
-      <c r="O15" s="72">
-        <v>17</v>
-      </c>
-      <c r="P15" s="72">
-        <v>18</v>
-      </c>
-      <c r="Q15" s="72">
-        <v>19</v>
-      </c>
-      <c r="R15" s="58">
+      <c r="I15" s="67">
+        <v>4</v>
+      </c>
+      <c r="J15" s="67">
+        <v>5</v>
+      </c>
+      <c r="K15" s="67">
+        <v>12</v>
+      </c>
+      <c r="L15" s="67">
+        <v>15</v>
+      </c>
+      <c r="M15" s="67">
+        <v>15</v>
+      </c>
+      <c r="N15" s="67">
+        <v>16</v>
+      </c>
+      <c r="O15" s="67">
+        <v>17</v>
+      </c>
+      <c r="P15" s="67">
+        <v>18</v>
+      </c>
+      <c r="Q15" s="67">
+        <v>19</v>
+      </c>
+      <c r="R15" s="53">
         <v>19</v>
       </c>
     </row>
     <row r="16" spans="6:18" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="17" spans="6:18" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="F17" s="73" t="s">
+      <c r="F17" s="68" t="s">
         <v>26</v>
       </c>
     </row>
@@ -3996,19 +4058,19 @@
       </c>
     </row>
     <row r="21" spans="6:18" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F21" s="63" t="s">
+      <c r="F21" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="G21" s="60">
+      <c r="G21" s="55">
         <v>1</v>
       </c>
       <c r="H21" s="10">
         <v>2</v>
       </c>
-      <c r="I21" s="75">
-        <v>15</v>
-      </c>
-      <c r="J21" s="66">
+      <c r="I21" s="70">
+        <v>15</v>
+      </c>
+      <c r="J21" s="61">
         <v>5</v>
       </c>
       <c r="K21" s="46">
@@ -4029,7 +4091,7 @@
       <c r="P21" s="46">
         <v>19</v>
       </c>
-      <c r="Q21" s="74">
+      <c r="Q21" s="69">
         <v>16</v>
       </c>
       <c r="R21" s="46">
@@ -4037,377 +4099,377 @@
       </c>
     </row>
     <row r="22" spans="6:18" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F22" s="64" t="s">
+      <c r="F22" s="59" t="s">
         <v>14</v>
       </c>
-      <c r="G22" s="61">
+      <c r="G22" s="56">
         <v>2</v>
       </c>
       <c r="H22" s="11">
         <v>2</v>
       </c>
-      <c r="I22" s="76">
-        <v>15</v>
-      </c>
-      <c r="J22" s="78">
-        <v>5</v>
-      </c>
-      <c r="K22" s="69">
-        <v>18</v>
-      </c>
-      <c r="L22" s="76">
-        <v>12</v>
-      </c>
-      <c r="M22" s="76">
-        <v>19</v>
-      </c>
-      <c r="N22" s="76">
-        <v>4</v>
-      </c>
-      <c r="O22" s="76">
-        <v>15</v>
-      </c>
-      <c r="P22" s="76">
-        <v>19</v>
-      </c>
-      <c r="Q22" s="77">
-        <v>16</v>
-      </c>
-      <c r="R22" s="76">
+      <c r="I22" s="71">
+        <v>15</v>
+      </c>
+      <c r="J22" s="73">
+        <v>5</v>
+      </c>
+      <c r="K22" s="64">
+        <v>18</v>
+      </c>
+      <c r="L22" s="71">
+        <v>12</v>
+      </c>
+      <c r="M22" s="71">
+        <v>19</v>
+      </c>
+      <c r="N22" s="71">
+        <v>4</v>
+      </c>
+      <c r="O22" s="71">
+        <v>15</v>
+      </c>
+      <c r="P22" s="71">
+        <v>19</v>
+      </c>
+      <c r="Q22" s="72">
+        <v>16</v>
+      </c>
+      <c r="R22" s="71">
         <v>17</v>
       </c>
     </row>
     <row r="23" spans="6:18" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F23" s="64" t="s">
-        <v>15</v>
-      </c>
-      <c r="G23" s="61">
+      <c r="F23" s="59" t="s">
+        <v>15</v>
+      </c>
+      <c r="G23" s="56">
         <v>3</v>
       </c>
       <c r="H23" s="11">
         <v>2</v>
       </c>
-      <c r="I23" s="76">
-        <v>15</v>
-      </c>
-      <c r="J23" s="79">
-        <v>5</v>
-      </c>
-      <c r="K23" s="57">
-        <v>18</v>
-      </c>
-      <c r="L23" s="80">
-        <v>12</v>
-      </c>
-      <c r="M23" s="76">
-        <v>19</v>
-      </c>
-      <c r="N23" s="76">
-        <v>4</v>
-      </c>
-      <c r="O23" s="76">
-        <v>15</v>
-      </c>
-      <c r="P23" s="76">
-        <v>19</v>
-      </c>
-      <c r="Q23" s="77">
-        <v>16</v>
-      </c>
-      <c r="R23" s="76">
+      <c r="I23" s="71">
+        <v>15</v>
+      </c>
+      <c r="J23" s="74">
+        <v>5</v>
+      </c>
+      <c r="K23" s="52">
+        <v>18</v>
+      </c>
+      <c r="L23" s="75">
+        <v>12</v>
+      </c>
+      <c r="M23" s="71">
+        <v>19</v>
+      </c>
+      <c r="N23" s="71">
+        <v>4</v>
+      </c>
+      <c r="O23" s="71">
+        <v>15</v>
+      </c>
+      <c r="P23" s="71">
+        <v>19</v>
+      </c>
+      <c r="Q23" s="72">
+        <v>16</v>
+      </c>
+      <c r="R23" s="71">
         <v>17</v>
       </c>
     </row>
     <row r="24" spans="6:18" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F24" s="64" t="s">
-        <v>16</v>
-      </c>
-      <c r="G24" s="61">
+      <c r="F24" s="59" t="s">
+        <v>16</v>
+      </c>
+      <c r="G24" s="56">
         <v>4</v>
       </c>
       <c r="H24" s="11">
         <v>2</v>
       </c>
-      <c r="I24" s="76">
-        <v>15</v>
-      </c>
-      <c r="J24" s="79">
-        <v>5</v>
-      </c>
-      <c r="K24" s="57">
-        <v>18</v>
-      </c>
-      <c r="L24" s="76">
-        <v>12</v>
-      </c>
-      <c r="M24" s="80">
-        <v>19</v>
-      </c>
-      <c r="N24" s="76">
-        <v>4</v>
-      </c>
-      <c r="O24" s="76">
-        <v>15</v>
-      </c>
-      <c r="P24" s="76">
-        <v>19</v>
-      </c>
-      <c r="Q24" s="77">
-        <v>16</v>
-      </c>
-      <c r="R24" s="76">
+      <c r="I24" s="71">
+        <v>15</v>
+      </c>
+      <c r="J24" s="74">
+        <v>5</v>
+      </c>
+      <c r="K24" s="52">
+        <v>18</v>
+      </c>
+      <c r="L24" s="71">
+        <v>12</v>
+      </c>
+      <c r="M24" s="75">
+        <v>19</v>
+      </c>
+      <c r="N24" s="71">
+        <v>4</v>
+      </c>
+      <c r="O24" s="71">
+        <v>15</v>
+      </c>
+      <c r="P24" s="71">
+        <v>19</v>
+      </c>
+      <c r="Q24" s="72">
+        <v>16</v>
+      </c>
+      <c r="R24" s="71">
         <v>17</v>
       </c>
     </row>
     <row r="25" spans="6:18" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F25" s="64" t="s">
-        <v>17</v>
-      </c>
-      <c r="G25" s="61">
+      <c r="F25" s="59" t="s">
+        <v>17</v>
+      </c>
+      <c r="G25" s="56">
         <v>5</v>
       </c>
       <c r="H25" s="11">
         <v>6</v>
       </c>
-      <c r="I25" s="76">
-        <v>15</v>
-      </c>
-      <c r="J25" s="79">
-        <v>5</v>
-      </c>
-      <c r="K25" s="57">
-        <v>18</v>
-      </c>
-      <c r="L25" s="76">
-        <v>12</v>
-      </c>
-      <c r="M25" s="76">
-        <v>19</v>
-      </c>
-      <c r="N25" s="80">
-        <v>4</v>
-      </c>
-      <c r="O25" s="76">
-        <v>15</v>
-      </c>
-      <c r="P25" s="76">
-        <v>19</v>
-      </c>
-      <c r="Q25" s="77">
-        <v>16</v>
-      </c>
-      <c r="R25" s="76">
+      <c r="I25" s="71">
+        <v>15</v>
+      </c>
+      <c r="J25" s="74">
+        <v>5</v>
+      </c>
+      <c r="K25" s="52">
+        <v>18</v>
+      </c>
+      <c r="L25" s="71">
+        <v>12</v>
+      </c>
+      <c r="M25" s="71">
+        <v>19</v>
+      </c>
+      <c r="N25" s="75">
+        <v>4</v>
+      </c>
+      <c r="O25" s="71">
+        <v>15</v>
+      </c>
+      <c r="P25" s="71">
+        <v>19</v>
+      </c>
+      <c r="Q25" s="72">
+        <v>16</v>
+      </c>
+      <c r="R25" s="71">
         <v>17</v>
       </c>
     </row>
     <row r="26" spans="6:18" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F26" s="64" t="s">
-        <v>18</v>
-      </c>
-      <c r="G26" s="61">
+      <c r="F26" s="59" t="s">
+        <v>18</v>
+      </c>
+      <c r="G26" s="56">
         <v>6</v>
       </c>
       <c r="H26" s="11">
         <v>6</v>
       </c>
-      <c r="I26" s="76">
-        <v>15</v>
-      </c>
-      <c r="J26" s="57">
-        <v>5</v>
-      </c>
-      <c r="K26" s="57">
-        <v>18</v>
-      </c>
-      <c r="L26" s="76">
-        <v>12</v>
-      </c>
-      <c r="M26" s="76">
-        <v>19</v>
-      </c>
-      <c r="N26" s="82">
-        <v>4</v>
-      </c>
-      <c r="O26" s="80">
-        <v>15</v>
-      </c>
-      <c r="P26" s="76">
-        <v>19</v>
-      </c>
-      <c r="Q26" s="77">
-        <v>16</v>
-      </c>
-      <c r="R26" s="76">
+      <c r="I26" s="71">
+        <v>15</v>
+      </c>
+      <c r="J26" s="52">
+        <v>5</v>
+      </c>
+      <c r="K26" s="52">
+        <v>18</v>
+      </c>
+      <c r="L26" s="71">
+        <v>12</v>
+      </c>
+      <c r="M26" s="71">
+        <v>19</v>
+      </c>
+      <c r="N26" s="77">
+        <v>4</v>
+      </c>
+      <c r="O26" s="75">
+        <v>15</v>
+      </c>
+      <c r="P26" s="71">
+        <v>19</v>
+      </c>
+      <c r="Q26" s="72">
+        <v>16</v>
+      </c>
+      <c r="R26" s="71">
         <v>17</v>
       </c>
     </row>
     <row r="27" spans="6:18" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F27" s="64" t="s">
-        <v>19</v>
-      </c>
-      <c r="G27" s="61">
+      <c r="F27" s="59" t="s">
+        <v>19</v>
+      </c>
+      <c r="G27" s="56">
         <v>7</v>
       </c>
       <c r="H27" s="11">
         <v>6</v>
       </c>
-      <c r="I27" s="76">
-        <v>15</v>
-      </c>
-      <c r="J27" s="57">
-        <v>5</v>
-      </c>
-      <c r="K27" s="57">
-        <v>18</v>
-      </c>
-      <c r="L27" s="76">
-        <v>12</v>
-      </c>
-      <c r="M27" s="76">
-        <v>19</v>
-      </c>
-      <c r="N27" s="82">
-        <v>4</v>
-      </c>
-      <c r="O27" s="76">
-        <v>15</v>
-      </c>
-      <c r="P27" s="80">
-        <v>19</v>
-      </c>
-      <c r="Q27" s="77">
-        <v>16</v>
-      </c>
-      <c r="R27" s="76">
+      <c r="I27" s="71">
+        <v>15</v>
+      </c>
+      <c r="J27" s="52">
+        <v>5</v>
+      </c>
+      <c r="K27" s="52">
+        <v>18</v>
+      </c>
+      <c r="L27" s="71">
+        <v>12</v>
+      </c>
+      <c r="M27" s="71">
+        <v>19</v>
+      </c>
+      <c r="N27" s="77">
+        <v>4</v>
+      </c>
+      <c r="O27" s="71">
+        <v>15</v>
+      </c>
+      <c r="P27" s="75">
+        <v>19</v>
+      </c>
+      <c r="Q27" s="72">
+        <v>16</v>
+      </c>
+      <c r="R27" s="71">
         <v>17</v>
       </c>
     </row>
     <row r="28" spans="6:18" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F28" s="64" t="s">
+      <c r="F28" s="59" t="s">
         <v>20</v>
       </c>
-      <c r="G28" s="61">
+      <c r="G28" s="56">
         <v>8</v>
       </c>
       <c r="H28" s="11">
         <v>6</v>
       </c>
-      <c r="I28" s="76">
-        <v>15</v>
-      </c>
-      <c r="J28" s="57">
-        <v>5</v>
-      </c>
-      <c r="K28" s="57">
-        <v>18</v>
-      </c>
-      <c r="L28" s="76">
-        <v>12</v>
-      </c>
-      <c r="M28" s="76">
-        <v>19</v>
-      </c>
-      <c r="N28" s="82">
-        <v>4</v>
-      </c>
-      <c r="O28" s="76">
-        <v>15</v>
-      </c>
-      <c r="P28" s="76">
-        <v>19</v>
-      </c>
-      <c r="Q28" s="81">
-        <v>16</v>
-      </c>
-      <c r="R28" s="76">
+      <c r="I28" s="71">
+        <v>15</v>
+      </c>
+      <c r="J28" s="52">
+        <v>5</v>
+      </c>
+      <c r="K28" s="52">
+        <v>18</v>
+      </c>
+      <c r="L28" s="71">
+        <v>12</v>
+      </c>
+      <c r="M28" s="71">
+        <v>19</v>
+      </c>
+      <c r="N28" s="77">
+        <v>4</v>
+      </c>
+      <c r="O28" s="71">
+        <v>15</v>
+      </c>
+      <c r="P28" s="71">
+        <v>19</v>
+      </c>
+      <c r="Q28" s="76">
+        <v>16</v>
+      </c>
+      <c r="R28" s="71">
         <v>17</v>
       </c>
     </row>
     <row r="29" spans="6:18" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F29" s="64" t="s">
+      <c r="F29" s="59" t="s">
         <v>21</v>
       </c>
-      <c r="G29" s="61">
+      <c r="G29" s="56">
         <v>9</v>
       </c>
       <c r="H29" s="11">
         <v>6</v>
       </c>
-      <c r="I29" s="76">
-        <v>15</v>
-      </c>
-      <c r="J29" s="57">
-        <v>5</v>
-      </c>
-      <c r="K29" s="57">
-        <v>18</v>
-      </c>
-      <c r="L29" s="76">
-        <v>12</v>
-      </c>
-      <c r="M29" s="76">
-        <v>19</v>
-      </c>
-      <c r="N29" s="82">
-        <v>4</v>
-      </c>
-      <c r="O29" s="76">
-        <v>15</v>
-      </c>
-      <c r="P29" s="76">
-        <v>19</v>
-      </c>
-      <c r="Q29" s="77">
-        <v>16</v>
-      </c>
-      <c r="R29" s="80">
+      <c r="I29" s="71">
+        <v>15</v>
+      </c>
+      <c r="J29" s="52">
+        <v>5</v>
+      </c>
+      <c r="K29" s="52">
+        <v>18</v>
+      </c>
+      <c r="L29" s="71">
+        <v>12</v>
+      </c>
+      <c r="M29" s="71">
+        <v>19</v>
+      </c>
+      <c r="N29" s="77">
+        <v>4</v>
+      </c>
+      <c r="O29" s="71">
+        <v>15</v>
+      </c>
+      <c r="P29" s="71">
+        <v>19</v>
+      </c>
+      <c r="Q29" s="72">
+        <v>16</v>
+      </c>
+      <c r="R29" s="75">
         <v>17</v>
       </c>
     </row>
     <row r="30" spans="6:18" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F30" s="65"/>
-      <c r="G30" s="62"/>
+      <c r="F30" s="60"/>
+      <c r="G30" s="57"/>
       <c r="H30" s="12"/>
-      <c r="I30" s="76">
-        <v>15</v>
-      </c>
-      <c r="J30" s="57">
-        <v>5</v>
-      </c>
-      <c r="K30" s="57">
-        <v>18</v>
-      </c>
-      <c r="L30" s="76">
-        <v>12</v>
-      </c>
-      <c r="M30" s="76">
-        <v>19</v>
-      </c>
-      <c r="N30" s="82">
-        <v>4</v>
-      </c>
-      <c r="O30" s="76">
-        <v>15</v>
-      </c>
-      <c r="P30" s="76">
-        <v>19</v>
-      </c>
-      <c r="Q30" s="77">
-        <v>16</v>
-      </c>
-      <c r="R30" s="76">
+      <c r="I30" s="71">
+        <v>15</v>
+      </c>
+      <c r="J30" s="52">
+        <v>5</v>
+      </c>
+      <c r="K30" s="52">
+        <v>18</v>
+      </c>
+      <c r="L30" s="71">
+        <v>12</v>
+      </c>
+      <c r="M30" s="71">
+        <v>19</v>
+      </c>
+      <c r="N30" s="77">
+        <v>4</v>
+      </c>
+      <c r="O30" s="71">
+        <v>15</v>
+      </c>
+      <c r="P30" s="71">
+        <v>19</v>
+      </c>
+      <c r="Q30" s="72">
+        <v>16</v>
+      </c>
+      <c r="R30" s="71">
         <v>17</v>
       </c>
     </row>
     <row r="31" spans="6:18" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="32" spans="6:18" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="F32" s="83" t="s">
+      <c r="F32" s="78" t="s">
         <v>27</v>
       </c>
       <c r="G32" s="50"/>
     </row>
     <row r="33" spans="6:7" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="F33" s="83" t="s">
+      <c r="F33" s="78" t="s">
         <v>28</v>
       </c>
       <c r="G33" s="50"/>
@@ -4421,16 +4483,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9236CEF1-0BDA-4DB0-A45E-B420FF0236E6}">
   <dimension ref="G6:N14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H7" sqref="H7:N13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="6" spans="7:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="7" spans="7:14" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G7" s="94"/>
-      <c r="H7" s="95" t="s">
+      <c r="G7" s="89"/>
+      <c r="H7" s="90" t="s">
         <v>1</v>
       </c>
       <c r="I7" s="20" t="s">
@@ -4456,22 +4518,22 @@
       <c r="H8" s="1">
         <v>1</v>
       </c>
-      <c r="I8" s="87" t="s">
+      <c r="I8" s="82" t="s">
         <v>30</v>
       </c>
-      <c r="J8" s="59" t="s">
+      <c r="J8" s="54" t="s">
         <v>31</v>
       </c>
-      <c r="K8" s="77" t="s">
+      <c r="K8" s="72" t="s">
         <v>29</v>
       </c>
-      <c r="L8" s="77" t="s">
+      <c r="L8" s="72" t="s">
         <v>32</v>
       </c>
-      <c r="M8" s="77" t="s">
+      <c r="M8" s="72" t="s">
         <v>33</v>
       </c>
-      <c r="N8" s="77" t="s">
+      <c r="N8" s="72" t="s">
         <v>34</v>
       </c>
     </row>
@@ -4479,22 +4541,22 @@
       <c r="H9" s="2">
         <v>2</v>
       </c>
-      <c r="I9" s="88" t="s">
+      <c r="I9" s="83" t="s">
         <v>31</v>
       </c>
-      <c r="J9" s="89" t="s">
+      <c r="J9" s="84" t="s">
         <v>30</v>
       </c>
-      <c r="K9" s="57" t="s">
+      <c r="K9" s="52" t="s">
         <v>29</v>
       </c>
-      <c r="L9" s="76" t="s">
+      <c r="L9" s="71" t="s">
         <v>32</v>
       </c>
-      <c r="M9" s="76" t="s">
+      <c r="M9" s="71" t="s">
         <v>33</v>
       </c>
-      <c r="N9" s="76" t="s">
+      <c r="N9" s="71" t="s">
         <v>34</v>
       </c>
     </row>
@@ -4502,22 +4564,22 @@
       <c r="H10" s="2">
         <v>3</v>
       </c>
-      <c r="I10" s="88" t="s">
+      <c r="I10" s="83" t="s">
         <v>29</v>
       </c>
-      <c r="J10" s="89" t="s">
+      <c r="J10" s="84" t="s">
         <v>31</v>
       </c>
-      <c r="K10" s="89" t="s">
+      <c r="K10" s="84" t="s">
         <v>30</v>
       </c>
-      <c r="L10" s="57" t="s">
+      <c r="L10" s="52" t="s">
         <v>32</v>
       </c>
-      <c r="M10" s="76" t="s">
+      <c r="M10" s="71" t="s">
         <v>33</v>
       </c>
-      <c r="N10" s="76" t="s">
+      <c r="N10" s="71" t="s">
         <v>34</v>
       </c>
     </row>
@@ -4525,22 +4587,22 @@
       <c r="H11" s="2">
         <v>4</v>
       </c>
-      <c r="I11" s="90" t="s">
+      <c r="I11" s="85" t="s">
         <v>29</v>
       </c>
-      <c r="J11" s="91" t="s">
+      <c r="J11" s="86" t="s">
         <v>31</v>
       </c>
-      <c r="K11" s="91" t="s">
+      <c r="K11" s="86" t="s">
         <v>30</v>
       </c>
-      <c r="L11" s="91" t="s">
+      <c r="L11" s="86" t="s">
         <v>32</v>
       </c>
-      <c r="M11" s="85" t="s">
+      <c r="M11" s="80" t="s">
         <v>33</v>
       </c>
-      <c r="N11" s="84" t="s">
+      <c r="N11" s="79" t="s">
         <v>34</v>
       </c>
     </row>
@@ -4548,43 +4610,43 @@
       <c r="H12" s="3">
         <v>5</v>
       </c>
-      <c r="I12" s="92" t="s">
+      <c r="I12" s="87" t="s">
         <v>29</v>
       </c>
-      <c r="J12" s="93" t="s">
+      <c r="J12" s="88" t="s">
         <v>31</v>
       </c>
-      <c r="K12" s="93" t="s">
+      <c r="K12" s="88" t="s">
         <v>30</v>
       </c>
-      <c r="L12" s="93" t="s">
+      <c r="L12" s="88" t="s">
         <v>32</v>
       </c>
-      <c r="M12" s="93" t="s">
+      <c r="M12" s="88" t="s">
         <v>34</v>
       </c>
-      <c r="N12" s="86" t="s">
+      <c r="N12" s="81" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="13" spans="7:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H13" s="3"/>
-      <c r="I13" s="92" t="s">
+      <c r="I13" s="87" t="s">
         <v>29</v>
       </c>
-      <c r="J13" s="93" t="s">
+      <c r="J13" s="88" t="s">
         <v>31</v>
       </c>
-      <c r="K13" s="93" t="s">
+      <c r="K13" s="88" t="s">
         <v>30</v>
       </c>
-      <c r="L13" s="93" t="s">
+      <c r="L13" s="88" t="s">
         <v>32</v>
       </c>
-      <c r="M13" s="93" t="s">
+      <c r="M13" s="88" t="s">
         <v>34</v>
       </c>
-      <c r="N13" s="93" t="s">
+      <c r="N13" s="88" t="s">
         <v>33</v>
       </c>
     </row>
@@ -4592,4 +4654,463 @@
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0281BBF-8BAA-4EFC-94E7-11C1B0FC4294}">
+  <dimension ref="D5:S20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H21" sqref="H21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="8" max="8" width="24.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="5" spans="4:19" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="E5" s="102" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="4:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="8" spans="4:19" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D8" s="89"/>
+      <c r="E8" s="90" t="s">
+        <v>35</v>
+      </c>
+      <c r="F8" s="90" t="s">
+        <v>36</v>
+      </c>
+      <c r="G8" s="90" t="s">
+        <v>1</v>
+      </c>
+      <c r="H8" s="90" t="s">
+        <v>37</v>
+      </c>
+      <c r="I8" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="J8" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="K8" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="L8" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="M8" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="N8" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="O8" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="P8" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q8" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="R8" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="S8" s="15" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="4:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D9" s="89"/>
+      <c r="E9" s="103" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" s="104">
+        <v>5</v>
+      </c>
+      <c r="G9" s="104">
+        <v>1</v>
+      </c>
+      <c r="H9" s="104">
+        <v>9</v>
+      </c>
+      <c r="I9" s="105">
+        <v>5</v>
+      </c>
+      <c r="J9" s="99">
+        <v>3</v>
+      </c>
+      <c r="K9" s="99">
+        <v>5</v>
+      </c>
+      <c r="L9" s="99">
+        <v>6</v>
+      </c>
+      <c r="M9" s="99">
+        <v>8</v>
+      </c>
+      <c r="N9" s="100">
+        <v>9</v>
+      </c>
+      <c r="O9" s="99">
+        <v>15</v>
+      </c>
+      <c r="P9" s="72">
+        <v>16</v>
+      </c>
+      <c r="Q9" s="97">
+        <v>17</v>
+      </c>
+      <c r="R9" s="97">
+        <v>19</v>
+      </c>
+      <c r="S9" s="99">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="4:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E10" s="98" t="s">
+        <v>14</v>
+      </c>
+      <c r="F10" s="106">
+        <v>5</v>
+      </c>
+      <c r="G10" s="106">
+        <v>1</v>
+      </c>
+      <c r="H10" s="106">
+        <v>4</v>
+      </c>
+      <c r="I10" s="107">
+        <v>2</v>
+      </c>
+      <c r="J10" s="97">
+        <v>3</v>
+      </c>
+      <c r="K10" s="101">
+        <v>5</v>
+      </c>
+      <c r="L10" s="97">
+        <v>6</v>
+      </c>
+      <c r="M10" s="97">
+        <v>8</v>
+      </c>
+      <c r="N10" s="97">
+        <v>9</v>
+      </c>
+      <c r="O10" s="97">
+        <v>15</v>
+      </c>
+      <c r="P10" s="97">
+        <v>16</v>
+      </c>
+      <c r="Q10" s="97">
+        <v>17</v>
+      </c>
+      <c r="R10" s="97">
+        <v>19</v>
+      </c>
+      <c r="S10" s="97">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="4:19" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="4:19" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="E12" s="102" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="4:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="14" spans="4:19" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D14" s="89"/>
+      <c r="E14" s="90" t="s">
+        <v>35</v>
+      </c>
+      <c r="F14" s="90" t="s">
+        <v>36</v>
+      </c>
+      <c r="G14" s="90" t="s">
+        <v>1</v>
+      </c>
+      <c r="H14" s="90" t="s">
+        <v>37</v>
+      </c>
+      <c r="I14" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="J14" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="K14" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="L14" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="M14" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="N14" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="O14" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="P14" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q14" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="R14" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="S14" s="15" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="4:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E15" s="51" t="s">
+        <v>13</v>
+      </c>
+      <c r="F15" s="104">
+        <v>5</v>
+      </c>
+      <c r="G15" s="104">
+        <v>1</v>
+      </c>
+      <c r="H15" s="104">
+        <v>9</v>
+      </c>
+      <c r="I15" s="105">
+        <v>5</v>
+      </c>
+      <c r="J15" s="99">
+        <v>3</v>
+      </c>
+      <c r="K15" s="99">
+        <v>5</v>
+      </c>
+      <c r="L15" s="99">
+        <v>6</v>
+      </c>
+      <c r="M15" s="99">
+        <v>8</v>
+      </c>
+      <c r="N15" s="100">
+        <v>9</v>
+      </c>
+      <c r="O15" s="99">
+        <v>15</v>
+      </c>
+      <c r="P15" s="72">
+        <v>16</v>
+      </c>
+      <c r="Q15" s="97">
+        <v>17</v>
+      </c>
+      <c r="R15" s="97">
+        <v>19</v>
+      </c>
+      <c r="S15" s="99">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="4:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E16" s="98" t="s">
+        <v>14</v>
+      </c>
+      <c r="F16" s="106">
+        <v>5</v>
+      </c>
+      <c r="G16" s="106">
+        <v>6</v>
+      </c>
+      <c r="H16" s="106">
+        <v>10</v>
+      </c>
+      <c r="I16" s="107">
+        <v>8</v>
+      </c>
+      <c r="J16" s="97">
+        <v>3</v>
+      </c>
+      <c r="K16" s="97">
+        <v>5</v>
+      </c>
+      <c r="L16" s="97">
+        <v>6</v>
+      </c>
+      <c r="M16" s="97">
+        <v>8</v>
+      </c>
+      <c r="N16" s="97">
+        <v>9</v>
+      </c>
+      <c r="O16" s="97">
+        <v>15</v>
+      </c>
+      <c r="P16" s="97">
+        <v>16</v>
+      </c>
+      <c r="Q16" s="101">
+        <v>17</v>
+      </c>
+      <c r="R16" s="97">
+        <v>19</v>
+      </c>
+      <c r="S16" s="97">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="5:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E17" s="98" t="s">
+        <v>15</v>
+      </c>
+      <c r="F17" s="106">
+        <v>5</v>
+      </c>
+      <c r="G17" s="106">
+        <v>9</v>
+      </c>
+      <c r="H17" s="106">
+        <v>10</v>
+      </c>
+      <c r="I17" s="107">
+        <v>9</v>
+      </c>
+      <c r="J17" s="97">
+        <v>3</v>
+      </c>
+      <c r="K17" s="97">
+        <v>5</v>
+      </c>
+      <c r="L17" s="97">
+        <v>6</v>
+      </c>
+      <c r="M17" s="97">
+        <v>8</v>
+      </c>
+      <c r="N17" s="97">
+        <v>9</v>
+      </c>
+      <c r="O17" s="97">
+        <v>15</v>
+      </c>
+      <c r="P17" s="97">
+        <v>16</v>
+      </c>
+      <c r="Q17" s="97">
+        <v>17</v>
+      </c>
+      <c r="R17" s="101">
+        <v>19</v>
+      </c>
+      <c r="S17" s="97">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" spans="5:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E18" s="98" t="s">
+        <v>16</v>
+      </c>
+      <c r="F18" s="106">
+        <v>5</v>
+      </c>
+      <c r="G18" s="106">
+        <v>9</v>
+      </c>
+      <c r="H18" s="106">
+        <v>9</v>
+      </c>
+      <c r="I18" s="107">
+        <v>9</v>
+      </c>
+      <c r="J18" s="97">
+        <v>3</v>
+      </c>
+      <c r="K18" s="97">
+        <v>5</v>
+      </c>
+      <c r="L18" s="97">
+        <v>6</v>
+      </c>
+      <c r="M18" s="97">
+        <v>8</v>
+      </c>
+      <c r="N18" s="97">
+        <v>9</v>
+      </c>
+      <c r="O18" s="97">
+        <v>15</v>
+      </c>
+      <c r="P18" s="97">
+        <v>16</v>
+      </c>
+      <c r="Q18" s="97">
+        <v>17</v>
+      </c>
+      <c r="R18" s="101">
+        <v>19</v>
+      </c>
+      <c r="S18" s="97">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="19" spans="5:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E19" s="98" t="s">
+        <v>16</v>
+      </c>
+      <c r="F19" s="106">
+        <v>5</v>
+      </c>
+      <c r="G19" s="106">
+        <v>9</v>
+      </c>
+      <c r="H19" s="106" t="s">
+        <v>41</v>
+      </c>
+      <c r="I19" s="107">
+        <v>9</v>
+      </c>
+      <c r="J19" s="97">
+        <v>3</v>
+      </c>
+      <c r="K19" s="97">
+        <v>5</v>
+      </c>
+      <c r="L19" s="97">
+        <v>6</v>
+      </c>
+      <c r="M19" s="97">
+        <v>8</v>
+      </c>
+      <c r="N19" s="97">
+        <v>9</v>
+      </c>
+      <c r="O19" s="97">
+        <v>15</v>
+      </c>
+      <c r="P19" s="97">
+        <v>16</v>
+      </c>
+      <c r="Q19" s="97">
+        <v>17</v>
+      </c>
+      <c r="R19" s="101">
+        <v>19</v>
+      </c>
+      <c r="S19" s="97">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="20" spans="5:19" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>